--- a/99_その他/開発体験シート_14.xlsx
+++ b/99_その他/開発体験シート_14.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4BD9543C-D7A4-4B0D-B84F-423B3DA83BCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A59F9C25-9144-4F03-8782-B3C585EB4E38}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD9543C-D7A4-4B0D-B84F-423B3DA83BCA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,14 +13,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">開発体験シート!$B$1:$J$37</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,6 +28,97 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="67">
   <si>
+    <t>実装</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要求分析</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムテストのテスト項目を検討した</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムテストを行った</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューを進行した</t>
+    <rPh sb="5" eb="7">
+      <t>シンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューの議事録を作成した</t>
+    <rPh sb="5" eb="8">
+      <t>ギジロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計画立案</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リツアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メトリクスによりプロダクトの品質を評価した</t>
+    <rPh sb="14" eb="16">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メトリクスによりプロジェクトの品質を評価した</t>
+    <rPh sb="15" eb="17">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KPTによりプロジェクトの振り返りを行った</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
       <t>タイケン</t>
@@ -40,9 +129,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>質問</t>
+    <t>プロジェクトマネジメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復2</t>
     <rPh sb="0" eb="2">
-      <t>シツモン</t>
+      <t>ハンプク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -54,13 +151,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>反復2</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>反復3</t>
     <rPh sb="0" eb="2">
       <t>ハンプク</t>
@@ -68,13 +158,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>反復4</t>
-  </si>
-  <si>
-    <t>集計</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コメント（気付いたこと等）</t>
     <rPh sb="5" eb="7">
       <t>キヅ</t>
@@ -85,12 +168,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>要求分析</t>
+    <t>レビューに参加し発表（説明）した</t>
+    <rPh sb="5" eb="7">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分析</t>
     <rPh sb="0" eb="2">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
       <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -102,6 +202,32 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>クラス図</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース記述</t>
+  </si>
+  <si>
+    <t>非機能要求一覧</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>機能要求を検討しユースケース図を作成した</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
@@ -121,10 +247,302 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>非機能を検討し、記述した</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケースの詳細を検討し、記述した</t>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス図/オブジェクト図</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス図/オブジェクト図を検討し、作成した</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステートマシン図</t>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステートマシン図を検討し、作成した</t>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス図</t>
+  </si>
+  <si>
+    <t>クラス図を検討し、作成した</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス図を検討し、作成した</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画を立案・修正した</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リツアン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WBSを作成した（必要な作業を洗い出した）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガントチャートを作成した（スケジュールを検討した）</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行＆進捗確認</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績評価＆改善</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎日、予定と実績を記録した</t>
+    <rPh sb="0" eb="2">
+      <t>マイニチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その日の担当タスクが予定どおりに完了した</t>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定より遅れた際、リカバリ計画を立案した</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リツアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド内部の処理（アルゴリズム）を実装した</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストで見つかったバグを修正した</t>
+    <rPh sb="4" eb="5">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス図</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス図を検討し、作成した</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニットテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統合テスト</t>
+    <rPh sb="0" eb="2">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニットテストのテスト項目を検討した</t>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統合テストのテスト項目を検討した</t>
+    <rPh sb="0" eb="2">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストコードを作成し、統合テストを行った</t>
+    <rPh sb="11" eb="13">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストコードを作成し、ユニットテストを行った</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>○</t>
   </si>
   <si>
     <t>●</t>
+  </si>
+  <si>
+    <t>－</t>
   </si>
   <si>
     <t>手を実際に動かした。●は第三反復から。</t>
@@ -143,19 +561,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユースケース記述</t>
-  </si>
-  <si>
-    <t>ユースケースの詳細を検討し、記述した</t>
-    <rPh sb="7" eb="9">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>同上。</t>
     <rPh sb="0" eb="2">
       <t>ドウジョウ</t>
@@ -163,210 +568,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>非機能要求一覧</t>
+    <t>簡潔に説明するのが難しかった。</t>
+    <rPh sb="0" eb="2">
+      <t>カンケツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいものを提案するのが難しかった。</t>
     <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非機能を検討し、記述した</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケントウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分析</t>
-    <rPh sb="0" eb="2">
-      <t>ブンセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラス図/オブジェクト図</t>
-    <rPh sb="3" eb="4">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラス図/オブジェクト図を検討し、作成した</t>
-    <rPh sb="3" eb="4">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シーケンス図</t>
-    <rPh sb="5" eb="6">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シーケンス図を検討し、作成した</t>
-    <rPh sb="5" eb="6">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステートマシン図</t>
-    <rPh sb="7" eb="8">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステートマシン図を検討し、作成した</t>
-    <rPh sb="7" eb="8">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>－</t>
-  </si>
-  <si>
-    <t>設計</t>
-    <rPh sb="0" eb="2">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラス図</t>
-    <rPh sb="3" eb="4">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラス図を検討し、作成した</t>
-    <rPh sb="3" eb="4">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シーケンス図</t>
-  </si>
-  <si>
-    <t>シーケンス図を検討し、作成した</t>
-    <rPh sb="5" eb="6">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケントウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実装</t>
-    <rPh sb="0" eb="2">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メソッド内部の処理（アルゴリズム）を実装した</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストで見つかったバグを修正した</t>
-    <rPh sb="4" eb="5">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニットテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニットテストのテスト項目を検討した</t>
-    <rPh sb="11" eb="13">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストコードを作成し、ユニットテストを行った</t>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>統合テスト</t>
-    <rPh sb="0" eb="2">
-      <t>トウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>統合テストのテスト項目を検討した</t>
-    <rPh sb="0" eb="2">
-      <t>トウゴウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケントウ</t>
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ムズカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -381,13 +604,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テストコードを作成し、統合テストを行った</t>
-    <rPh sb="11" eb="13">
-      <t>トウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テストコードの書き方について、講師の方に質問した。</t>
     <rPh sb="7" eb="8">
       <t>カ</t>
@@ -407,229 +623,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>システムテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムテストのテスト項目を検討した</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムテストを行った</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビューを進行した</t>
-    <rPh sb="5" eb="7">
-      <t>シンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビューの議事録を作成した</t>
-    <rPh sb="5" eb="8">
-      <t>ギジロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リーダーだったが、議事録の体験ができた。</t>
     <rPh sb="9" eb="12">
       <t>ギジロク</t>
     </rPh>
     <rPh sb="13" eb="15">
       <t>タイケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビューに参加し発表（説明）した</t>
-    <rPh sb="5" eb="7">
-      <t>サンカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハッピョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>簡潔に説明するのが難しかった。</t>
-    <rPh sb="0" eb="2">
-      <t>カンケツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ムズカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロジェクトマネジメント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計画立案</t>
-    <rPh sb="0" eb="2">
-      <t>ケイカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リツアン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反復計画を立案・修正した</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケイカク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>リツアン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新しいものを提案するのが難しかった。</t>
-    <rPh sb="0" eb="1">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>テイアン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ムズカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WBSを作成した（必要な作業を洗い出した）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ガントチャートを作成した（スケジュールを検討した）</t>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実行＆進捗確認</t>
-    <rPh sb="0" eb="2">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シンチョク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>毎日、予定と実績を記録した</t>
-    <rPh sb="0" eb="2">
-      <t>マイニチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その日の担当タスクが予定どおりに完了した</t>
-    <rPh sb="2" eb="3">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タントウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予定より遅れた際、リカバリ計画を立案した</t>
-    <rPh sb="0" eb="2">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケイカク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>リツアン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実績評価＆改善</t>
-    <rPh sb="0" eb="2">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カイゼン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KPTによりプロジェクトの振り返りを行った</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メトリクスによりプロダクトの品質を評価した</t>
-    <rPh sb="14" eb="16">
-      <t>ヒンシツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メトリクスによりプロジェクトの品質を評価した</t>
-    <rPh sb="15" eb="17">
-      <t>ヒンシツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -638,7 +637,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1502,7 +1501,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1826,12 +1825,12 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -1842,131 +1841,131 @@
     <col min="10" max="10" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:10" ht="14.25" thickBot="1">
+    <row r="7" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:10" ht="18.75" customHeight="1" thickBot="1">
+    <row r="8" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="57" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C8" s="58"/>
       <c r="D8" s="7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B9" s="66" t="s">
-        <v>8</v>
-      </c>
       <c r="C9" s="14" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I9" s="51" t="str">
         <f>IF(COUNTIF(E9:H9,"*●*"),"●",IF(COUNTIF(E9:H9,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="18.75" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="67"/>
       <c r="C10" s="23" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I10" s="39" t="str">
         <f>IF(COUNTIF(E10:H10,"*●*"),"●",IF(COUNTIF(E10:H10,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="18.75" customHeight="1" thickBot="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="68"/>
       <c r="C11" s="16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I11" s="42" t="str">
         <f>IF(COUNTIF(E11:H11,"*●*"),"●",IF(COUNTIF(E11:H11,"*○*"),"○","－"))</f>
@@ -1974,27 +1973,27 @@
       </c>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="2:10" ht="18.75" customHeight="1">
+    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I12" s="51" t="str">
         <f>IF(COUNTIF(E12:H12,"*●*"),"●",IF(COUNTIF(E12:H12,"*○*"),"○","－"))</f>
@@ -2002,25 +2001,25 @@
       </c>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="2:10" ht="18.75" customHeight="1">
+    <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="69"/>
       <c r="C13" s="21" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I13" s="39" t="str">
         <f>IF(COUNTIF(E13:H13,"*●*"),"●",IF(COUNTIF(E13:H13,"*○*"),"○","－"))</f>
@@ -2028,25 +2027,25 @@
       </c>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="2:10" ht="18.75" customHeight="1" thickBot="1">
+    <row r="14" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="69"/>
       <c r="C14" s="43" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I14" s="52" t="str">
         <f>IF(COUNTIF(E14:H14,"*●*"),"●",IF(COUNTIF(E14:H14,"*○*"),"○","－"))</f>
@@ -2054,27 +2053,27 @@
       </c>
       <c r="J14" s="46"/>
     </row>
-    <row r="15" spans="2:10" ht="18.75" customHeight="1">
+    <row r="15" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="70" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I15" s="51" t="str">
         <f>IF(COUNTIF(E15:H15,"*●*"),"●",IF(COUNTIF(E15:H15,"*○*"),"○","－"))</f>
@@ -2082,25 +2081,25 @@
       </c>
       <c r="J15" s="12"/>
     </row>
-    <row r="16" spans="2:10" ht="18.75" customHeight="1">
+    <row r="16" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="71"/>
       <c r="C16" s="21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I16" s="39" t="str">
         <f>IF(COUNTIF(E16:H16,"*●*"),"●",IF(COUNTIF(E16:H16,"*○*"),"○","－"))</f>
@@ -2108,25 +2107,25 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="2:10" ht="18.75" customHeight="1" thickBot="1">
+    <row r="17" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="71"/>
       <c r="C17" s="47" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="H17" s="49" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I17" s="52" t="str">
         <f>IF(COUNTIF(E17:H17,"*●*"),"●",IF(COUNTIF(E17:H17,"*○*"),"○","－"))</f>
@@ -2134,27 +2133,27 @@
       </c>
       <c r="J17" s="50"/>
     </row>
-    <row r="18" spans="2:10" ht="18.75" customHeight="1">
+    <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="62" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I18" s="51" t="str">
         <f>IF(COUNTIF(E18:H18,"*●*"),"●",IF(COUNTIF(E18:H18,"*○*"),"○","－"))</f>
@@ -2162,23 +2161,23 @@
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" ht="18.75" customHeight="1" thickBot="1">
+    <row r="19" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="61"/>
       <c r="C19" s="24"/>
       <c r="D19" s="17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I19" s="39" t="str">
         <f>IF(COUNTIF(E19:H19,"*●*"),"●",IF(COUNTIF(E19:H19,"*○*"),"○","－"))</f>
@@ -2186,27 +2185,27 @@
       </c>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="2:10" ht="18.75" customHeight="1">
+    <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="62" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I20" s="51" t="str">
         <f>IF(COUNTIF(E20:H20,"*●*"),"●",IF(COUNTIF(E20:H20,"*○*"),"○","－"))</f>
@@ -2214,23 +2213,23 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" ht="18.75" customHeight="1">
+    <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="60"/>
       <c r="C21" s="18"/>
       <c r="D21" s="20" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I21" s="39" t="str">
         <f>IF(COUNTIF(E21:H21,"*●*"),"●",IF(COUNTIF(E21:H21,"*○*"),"○","－"))</f>
@@ -2238,79 +2237,79 @@
       </c>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="2:10" ht="18.75" customHeight="1">
+    <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="60"/>
       <c r="C22" s="22" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I22" s="53" t="str">
         <f>IF(COUNTIF(E22:H22,"*●*"),"●",IF(COUNTIF(E22:H22,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="18.75" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="60"/>
       <c r="C23" s="23"/>
       <c r="D23" s="20" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I23" s="39" t="str">
         <f>IF(COUNTIF(E23:H23,"*●*"),"●",IF(COUNTIF(E23:H23,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="18.75" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="60"/>
       <c r="C24" s="22" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I24" s="39" t="str">
         <f>IF(COUNTIF(E24:H24,"*●*"),"●",IF(COUNTIF(E24:H24,"*○*"),"○","－"))</f>
@@ -2318,23 +2317,23 @@
       </c>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="2:10" ht="18.75" customHeight="1" thickBot="1">
+    <row r="25" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="61"/>
       <c r="C25" s="24"/>
       <c r="D25" s="25" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I25" s="42" t="str">
         <f>IF(COUNTIF(E25:H25,"*●*"),"●",IF(COUNTIF(E25:H25,"*○*"),"○","－"))</f>
@@ -2342,27 +2341,27 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="2:10" ht="18.75" customHeight="1">
+    <row r="26" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="59" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I26" s="51" t="str">
         <f>IF(COUNTIF(E26:H26,"*●*"),"●",IF(COUNTIF(E26:H26,"*○*"),"○","－"))</f>
@@ -2370,105 +2369,105 @@
       </c>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="2:10" ht="18.75" customHeight="1">
+    <row r="27" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="60"/>
       <c r="C27" s="64"/>
       <c r="D27" s="19" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I27" s="39" t="str">
         <f>IF(COUNTIF(E27:H27,"*●*"),"●",IF(COUNTIF(E27:H27,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="18.75" customHeight="1" thickBot="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="61"/>
       <c r="C28" s="65"/>
       <c r="D28" s="28" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I28" s="42" t="str">
         <f>IF(COUNTIF(E28:H28,"*●*"),"●",IF(COUNTIF(E28:H28,"*○*"),"○","－"))</f>
         <v>○</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="18.75" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="54" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I29" s="51" t="str">
         <f>IF(COUNTIF(E29:H29,"*●*"),"●",IF(COUNTIF(E29:H29,"*○*"),"○","－"))</f>
         <v>○</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="18.75" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="55"/>
       <c r="C30" s="34"/>
       <c r="D30" s="29" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I30" s="39" t="str">
         <f>IF(COUNTIF(E30:H30,"*●*"),"●",IF(COUNTIF(E30:H30,"*○*"),"○","－"))</f>
@@ -2476,23 +2475,23 @@
       </c>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="2:10" ht="18.75" customHeight="1">
+    <row r="31" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="55"/>
       <c r="C31" s="34"/>
       <c r="D31" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H31" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I31" s="53" t="str">
         <f>IF(COUNTIF(E31:H31,"*●*"),"●",IF(COUNTIF(E31:H31,"*○*"),"○","－"))</f>
@@ -2500,25 +2499,25 @@
       </c>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="2:10" ht="18.75" customHeight="1">
+    <row r="32" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="55"/>
       <c r="C32" s="35" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I32" s="39" t="str">
         <f>IF(COUNTIF(E32:H32,"*●*"),"●",IF(COUNTIF(E32:H32,"*○*"),"○","－"))</f>
@@ -2526,23 +2525,23 @@
       </c>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="2:10" ht="18.75" customHeight="1">
+    <row r="33" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="55"/>
       <c r="C33" s="34"/>
       <c r="D33" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I33" s="39" t="str">
         <f>IF(COUNTIF(E33:H33,"*●*"),"●",IF(COUNTIF(E33:H33,"*○*"),"○","－"))</f>
@@ -2550,23 +2549,23 @@
       </c>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="2:10" ht="18.75" customHeight="1">
+    <row r="34" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="55"/>
       <c r="C34" s="36"/>
       <c r="D34" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I34" s="53" t="str">
         <f>IF(COUNTIF(E34:H34,"*●*"),"●",IF(COUNTIF(E34:H34,"*○*"),"○","－"))</f>
@@ -2574,25 +2573,25 @@
       </c>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="2:10" ht="18.75" customHeight="1">
+    <row r="35" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="55"/>
       <c r="C35" s="37" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I35" s="39" t="str">
         <f>IF(COUNTIF(E35:H35,"*●*"),"●",IF(COUNTIF(E35:H35,"*○*"),"○","－"))</f>
@@ -2600,23 +2599,23 @@
       </c>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="2:10" ht="18.75" customHeight="1">
+    <row r="36" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="55"/>
       <c r="C36" s="3"/>
       <c r="D36" s="2" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F36" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H36" s="39" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I36" s="39" t="str">
         <f>IF(COUNTIF(E36:H36,"*●*"),"●",IF(COUNTIF(E36:H36,"*○*"),"○","－"))</f>
@@ -2624,23 +2623,23 @@
       </c>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="2:10" ht="18.75" customHeight="1" thickBot="1">
+    <row r="37" spans="2:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="56"/>
       <c r="C37" s="31"/>
       <c r="D37" s="32" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F37" s="40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="I37" s="42" t="str">
         <f>IF(COUNTIF(E37:H37,"*●*"),"●",IF(COUNTIF(E37:H37,"*○*"),"○","－"))</f>
@@ -2674,21 +2673,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2872,14 +2856,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09407D47-07BE-4E2C-B5F7-931C2DD4FE4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09407D47-07BE-4E2C-B5F7-931C2DD4FE4A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/99_その他/開発体験シート_14.xlsx
+++ b/99_その他/開発体験シート_14.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD9543C-D7A4-4B0D-B84F-423B3DA83BCA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE3DE00-09CA-46E7-9926-2B88689915C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="68">
   <si>
     <t>実装</t>
     <rPh sb="0" eb="2">
@@ -629,6 +629,13 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>タイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復4</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1827,7 +1834,7 @@
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1880,7 +1887,7 @@
         <v>18</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>48</v>
@@ -1912,7 +1919,7 @@
         <v>58</v>
       </c>
       <c r="I9" s="51" t="str">
-        <f>IF(COUNTIF(E9:H9,"*●*"),"●",IF(COUNTIF(E9:H9,"*○*"),"○","－"))</f>
+        <f t="shared" ref="I9:I37" si="0">IF(COUNTIF(E9:H9,"*●*"),"●",IF(COUNTIF(E9:H9,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
       <c r="J9" s="12" t="s">
@@ -1940,7 +1947,7 @@
         <v>58</v>
       </c>
       <c r="I10" s="39" t="str">
-        <f>IF(COUNTIF(E10:H10,"*●*"),"●",IF(COUNTIF(E10:H10,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>●</v>
       </c>
       <c r="J10" s="5" t="s">
@@ -1968,7 +1975,7 @@
         <v>57</v>
       </c>
       <c r="I11" s="42" t="str">
-        <f>IF(COUNTIF(E11:H11,"*●*"),"●",IF(COUNTIF(E11:H11,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="J11" s="13"/>
@@ -1996,7 +2003,7 @@
         <v>57</v>
       </c>
       <c r="I12" s="51" t="str">
-        <f>IF(COUNTIF(E12:H12,"*●*"),"●",IF(COUNTIF(E12:H12,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="J12" s="9"/>
@@ -2022,7 +2029,7 @@
         <v>57</v>
       </c>
       <c r="I13" s="39" t="str">
-        <f>IF(COUNTIF(E13:H13,"*●*"),"●",IF(COUNTIF(E13:H13,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="J13" s="9"/>
@@ -2048,7 +2055,7 @@
         <v>59</v>
       </c>
       <c r="I14" s="52" t="str">
-        <f>IF(COUNTIF(E14:H14,"*●*"),"●",IF(COUNTIF(E14:H14,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>－</v>
       </c>
       <c r="J14" s="46"/>
@@ -2076,7 +2083,7 @@
         <v>57</v>
       </c>
       <c r="I15" s="51" t="str">
-        <f>IF(COUNTIF(E15:H15,"*●*"),"●",IF(COUNTIF(E15:H15,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="J15" s="12"/>
@@ -2102,7 +2109,7 @@
         <v>57</v>
       </c>
       <c r="I16" s="39" t="str">
-        <f>IF(COUNTIF(E16:H16,"*●*"),"●",IF(COUNTIF(E16:H16,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="J16" s="9"/>
@@ -2128,7 +2135,7 @@
         <v>59</v>
       </c>
       <c r="I17" s="52" t="str">
-        <f>IF(COUNTIF(E17:H17,"*●*"),"●",IF(COUNTIF(E17:H17,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>－</v>
       </c>
       <c r="J17" s="50"/>
@@ -2156,7 +2163,7 @@
         <v>58</v>
       </c>
       <c r="I18" s="51" t="str">
-        <f>IF(COUNTIF(E18:H18,"*●*"),"●",IF(COUNTIF(E18:H18,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>●</v>
       </c>
       <c r="J18" s="4"/>
@@ -2180,7 +2187,7 @@
         <v>57</v>
       </c>
       <c r="I19" s="39" t="str">
-        <f>IF(COUNTIF(E19:H19,"*●*"),"●",IF(COUNTIF(E19:H19,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="J19" s="13"/>
@@ -2208,7 +2215,7 @@
         <v>57</v>
       </c>
       <c r="I20" s="51" t="str">
-        <f>IF(COUNTIF(E20:H20,"*●*"),"●",IF(COUNTIF(E20:H20,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="J20" s="4"/>
@@ -2232,7 +2239,7 @@
         <v>57</v>
       </c>
       <c r="I21" s="39" t="str">
-        <f>IF(COUNTIF(E21:H21,"*●*"),"●",IF(COUNTIF(E21:H21,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="J21" s="9"/>
@@ -2258,7 +2265,7 @@
         <v>58</v>
       </c>
       <c r="I22" s="53" t="str">
-        <f>IF(COUNTIF(E22:H22,"*●*"),"●",IF(COUNTIF(E22:H22,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>●</v>
       </c>
       <c r="J22" s="9" t="s">
@@ -2284,7 +2291,7 @@
         <v>58</v>
       </c>
       <c r="I23" s="39" t="str">
-        <f>IF(COUNTIF(E23:H23,"*●*"),"●",IF(COUNTIF(E23:H23,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>●</v>
       </c>
       <c r="J23" s="9" t="s">
@@ -2312,7 +2319,7 @@
         <v>57</v>
       </c>
       <c r="I24" s="39" t="str">
-        <f>IF(COUNTIF(E24:H24,"*●*"),"●",IF(COUNTIF(E24:H24,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="J24" s="9"/>
@@ -2336,7 +2343,7 @@
         <v>57</v>
       </c>
       <c r="I25" s="42" t="str">
-        <f>IF(COUNTIF(E25:H25,"*●*"),"●",IF(COUNTIF(E25:H25,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="J25" s="6"/>
@@ -2364,7 +2371,7 @@
         <v>58</v>
       </c>
       <c r="I26" s="51" t="str">
-        <f>IF(COUNTIF(E26:H26,"*●*"),"●",IF(COUNTIF(E26:H26,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>●</v>
       </c>
       <c r="J26" s="9"/>
@@ -2388,7 +2395,7 @@
         <v>58</v>
       </c>
       <c r="I27" s="39" t="str">
-        <f>IF(COUNTIF(E27:H27,"*●*"),"●",IF(COUNTIF(E27:H27,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>●</v>
       </c>
       <c r="J27" s="5" t="s">
@@ -2414,7 +2421,7 @@
         <v>57</v>
       </c>
       <c r="I28" s="42" t="str">
-        <f>IF(COUNTIF(E28:H28,"*●*"),"●",IF(COUNTIF(E28:H28,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="J28" s="13" t="s">
@@ -2444,7 +2451,7 @@
         <v>57</v>
       </c>
       <c r="I29" s="51" t="str">
-        <f>IF(COUNTIF(E29:H29,"*●*"),"●",IF(COUNTIF(E29:H29,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="J29" s="4" t="s">
@@ -2470,7 +2477,7 @@
         <v>57</v>
       </c>
       <c r="I30" s="39" t="str">
-        <f>IF(COUNTIF(E30:H30,"*●*"),"●",IF(COUNTIF(E30:H30,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="J30" s="9"/>
@@ -2494,7 +2501,7 @@
         <v>57</v>
       </c>
       <c r="I31" s="53" t="str">
-        <f>IF(COUNTIF(E31:H31,"*●*"),"●",IF(COUNTIF(E31:H31,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="J31" s="9"/>
@@ -2520,7 +2527,7 @@
         <v>58</v>
       </c>
       <c r="I32" s="39" t="str">
-        <f>IF(COUNTIF(E32:H32,"*●*"),"●",IF(COUNTIF(E32:H32,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>●</v>
       </c>
       <c r="J32" s="9"/>
@@ -2544,7 +2551,7 @@
         <v>58</v>
       </c>
       <c r="I33" s="39" t="str">
-        <f>IF(COUNTIF(E33:H33,"*●*"),"●",IF(COUNTIF(E33:H33,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>●</v>
       </c>
       <c r="J33" s="9"/>
@@ -2568,7 +2575,7 @@
         <v>57</v>
       </c>
       <c r="I34" s="53" t="str">
-        <f>IF(COUNTIF(E34:H34,"*●*"),"●",IF(COUNTIF(E34:H34,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="J34" s="9"/>
@@ -2594,7 +2601,7 @@
         <v>57</v>
       </c>
       <c r="I35" s="39" t="str">
-        <f>IF(COUNTIF(E35:H35,"*●*"),"●",IF(COUNTIF(E35:H35,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="J35" s="5"/>
@@ -2618,7 +2625,7 @@
         <v>57</v>
       </c>
       <c r="I36" s="39" t="str">
-        <f>IF(COUNTIF(E36:H36,"*●*"),"●",IF(COUNTIF(E36:H36,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="J36" s="9"/>
@@ -2642,7 +2649,7 @@
         <v>57</v>
       </c>
       <c r="I37" s="42" t="str">
-        <f>IF(COUNTIF(E37:H37,"*●*"),"●",IF(COUNTIF(E37:H37,"*○*"),"○","－"))</f>
+        <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="J37" s="13"/>
@@ -2673,6 +2680,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2856,22 +2878,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09407D47-07BE-4E2C-B5F7-931C2DD4FE4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2887,21 +2911,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>